--- a/Ubungen/Grundpraktikum/C1/Versuch 31/Durchfuhrung/Isotherm T=45.1.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 31/Durchfuhrung/Isotherm T=45.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 31\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6652F8-42C4-4FB9-BFCB-EFA53D63C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD5C6E-62E7-4A72-8976-D10BCE689F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>Gemischt</t>
+  </si>
+  <si>
+    <t>Flüssig</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,6 +465,108 @@
       <c r="B9">
         <v>31.5</v>
       </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.6</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>34.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.35</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.25</v>
+      </c>
+      <c r="B16">
+        <v>35.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="B17">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B18">
+        <v>44.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
